--- a/data/metadata/siteCoordinates.xlsx
+++ b/data/metadata/siteCoordinates.xlsx
@@ -8,12 +8,12 @@
     <sheet state="visible" name="siteChronology" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">NFWF!$A$1:$AF$1023</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_D7893EC2_F5D3_44A7_9B34_14D3B70846FB_.wvu.FilterData">NFWF!$A$1:$AF$1023</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">NFWF!$A$1:$AH$1023</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_01613340_CA6A_46A3_9EE8_616436530E68_.wvu.FilterData">NFWF!$A$1:$AH$1023</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D7893EC2-F5D3-44A7-9B34-14D3B70846FB}" name="By Site"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{01613340-CA6A-46A3-9EE8-616436530E68}" name="By Site"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="95">
   <si>
     <t>Site</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>long_x</t>
+  </si>
+  <si>
+    <t>exported to Github?</t>
+  </si>
+  <si>
+    <t>exported to Github</t>
   </si>
   <si>
     <t>T-AP-2</t>
@@ -1328,7 +1334,9 @@
       <c r="I11" s="7">
         <v>-81.48502</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -1547,6 +1555,9 @@
       <c r="I16" s="7">
         <v>-81.44387</v>
       </c>
+      <c r="J16" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
@@ -1753,6 +1764,9 @@
       <c r="I21" s="7">
         <v>-81.44465</v>
       </c>
+      <c r="J21" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
@@ -1958,6 +1972,9 @@
       </c>
       <c r="I26" s="7">
         <v>-81.49779</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -2158,6 +2175,9 @@
       </c>
       <c r="I31" s="7">
         <v>-81.49843</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2187,12 +2207,15 @@
     <col customWidth="1" min="9" max="9" width="13.25"/>
     <col customWidth="1" min="10" max="10" width="13.13"/>
     <col customWidth="1" min="11" max="11" width="15.0"/>
-    <col customWidth="1" min="12" max="12" width="19.63"/>
-    <col customWidth="1" min="13" max="13" width="18.88"/>
-    <col customWidth="1" min="14" max="14" width="22.13"/>
-    <col customWidth="1" min="16" max="16" width="9.5"/>
-    <col customWidth="1" min="17" max="17" width="22.25"/>
-    <col customWidth="1" min="18" max="18" width="17.0"/>
+    <col customWidth="1" min="12" max="12" width="23.38"/>
+    <col customWidth="1" min="13" max="13" width="22.0"/>
+    <col customWidth="1" min="14" max="14" width="24.13"/>
+    <col customWidth="1" min="15" max="15" width="9.0"/>
+    <col customWidth="1" min="16" max="16" width="21.38"/>
+    <col customWidth="1" min="17" max="17" width="12.25"/>
+    <col customWidth="1" min="18" max="18" width="21.38"/>
+    <col customWidth="1" min="19" max="19" width="25.63"/>
+    <col customWidth="1" min="20" max="20" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2242,45 +2265,51 @@
         <v>12</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="7">
         <v>100.0</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2" s="5">
         <v>44278.0</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J2" s="7">
         <v>24.45947</v>
@@ -2291,37 +2320,40 @@
       <c r="L2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>46</v>
+      <c r="N2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="7">
         <v>100.0</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3" s="5">
         <v>44278.0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J3" s="7">
         <v>24.45947</v>
@@ -2330,37 +2362,37 @@
         <v>-81.84441</v>
       </c>
       <c r="L3" s="17"/>
-      <c r="R3" s="6" t="s">
-        <v>46</v>
+      <c r="T3" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
         <v>100.0</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F4" s="8">
         <v>44722.0</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J4" s="7">
         <v>24.45947</v>
@@ -2374,35 +2406,41 @@
       <c r="M4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="6"/>
+      <c r="N4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7">
         <v>300.0</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5" s="5">
         <v>44307.0</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J5" s="7">
         <v>24.45984</v>
@@ -2425,37 +2463,40 @@
       <c r="P5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>46</v>
+      <c r="Q5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
         <v>300.0</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" s="5">
         <v>44307.0</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J6" s="7">
         <v>24.45984</v>
@@ -2478,37 +2519,40 @@
       <c r="P6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>46</v>
+      <c r="Q6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
         <v>300.0</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" s="5">
         <v>44307.0</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J7" s="7">
         <v>24.45984</v>
@@ -2531,37 +2575,40 @@
       <c r="P7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>46</v>
+      <c r="Q7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7">
         <v>300.0</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" s="18">
         <v>44343.0</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J8" s="7">
         <v>24.45984</v>
@@ -2570,37 +2617,37 @@
         <v>-81.84345</v>
       </c>
       <c r="L8" s="17"/>
-      <c r="R8" s="6" t="s">
-        <v>46</v>
+      <c r="T8" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7">
         <v>300.0</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F9" s="18">
         <v>44343.0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J9" s="7">
         <v>24.45984</v>
@@ -2609,37 +2656,37 @@
         <v>-81.84345</v>
       </c>
       <c r="L9" s="17"/>
-      <c r="R9" s="6" t="s">
-        <v>46</v>
+      <c r="T9" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
         <v>300.0</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F10" s="18">
         <v>44343.0</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J10" s="7">
         <v>24.45984</v>
@@ -2648,37 +2695,37 @@
         <v>-81.84345</v>
       </c>
       <c r="L10" s="17"/>
-      <c r="R10" s="6" t="s">
-        <v>46</v>
+      <c r="T10" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7">
         <v>300.0</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" s="8">
         <v>44679.0</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J11" s="7">
         <v>24.45984</v>
@@ -2701,37 +2748,40 @@
       <c r="P11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="6" t="s">
-        <v>46</v>
+      <c r="Q11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
         <v>300.0</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F12" s="8">
         <v>44679.0</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J12" s="7">
         <v>24.45984</v>
@@ -2754,37 +2804,40 @@
       <c r="P12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="6" t="s">
-        <v>46</v>
+      <c r="Q12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
         <v>300.0</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="8">
         <v>44679.0</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J13" s="7">
         <v>24.45984</v>
@@ -2807,37 +2860,40 @@
       <c r="P13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="6" t="s">
-        <v>46</v>
+      <c r="Q13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
         <v>150.0</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14" s="5">
         <v>44343.0</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J14" s="7">
         <v>24.45918</v>
@@ -2860,37 +2916,40 @@
       <c r="P14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R14" s="6" t="s">
-        <v>46</v>
+      <c r="Q14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7">
         <v>150.0</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F15" s="8">
         <v>44679.0</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J15" s="7">
         <v>24.45918</v>
@@ -2913,37 +2972,40 @@
       <c r="P15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="6" t="s">
-        <v>46</v>
+      <c r="Q15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7">
         <v>200.0</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="5">
         <v>44349.0</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J16" s="7">
         <v>24.45931</v>
@@ -2966,37 +3028,40 @@
       <c r="P16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R16" s="6" t="s">
-        <v>46</v>
+      <c r="Q16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7">
         <v>200.0</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F17" s="8">
         <v>44722.0</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J17" s="7">
         <v>24.45931</v>
@@ -3019,35 +3084,38 @@
       <c r="P17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R17" s="6"/>
+      <c r="Q17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D18" s="21">
         <v>150.0</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="23">
         <v>44362.0</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J18" s="21">
         <v>24.45937</v>
@@ -3062,14 +3130,18 @@
       <c r="N18" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
+      <c r="O18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="Q18" s="25"/>
-      <c r="R18" s="26" t="s">
-        <v>46</v>
-      </c>
+      <c r="R18" s="25"/>
       <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
+      <c r="T18" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="U18" s="25"/>
       <c r="V18" s="25"/>
       <c r="W18" s="25"/>
@@ -3082,34 +3154,36 @@
       <c r="AD18" s="25"/>
       <c r="AE18" s="25"/>
       <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
     </row>
     <row r="19">
       <c r="A19" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D19" s="21">
         <v>150.0</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="27">
         <v>44722.0</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J19" s="21">
         <v>24.45937</v>
@@ -3121,13 +3195,21 @@
         <v>25</v>
       </c>
       <c r="M19" s="25"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="26"/>
+      <c r="N19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" s="25"/>
       <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
+      <c r="T19" s="26"/>
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
@@ -3140,34 +3222,36 @@
       <c r="AD19" s="25"/>
       <c r="AE19" s="25"/>
       <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="7">
         <v>100.0</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" s="5">
         <v>44378.0</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J20" s="7">
         <v>24.45947</v>
@@ -3181,37 +3265,37 @@
       <c r="N20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R20" s="6" t="s">
-        <v>46</v>
+      <c r="T20" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D21" s="7">
         <v>250.0</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" s="5">
         <v>44404.0</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J21" s="7">
         <v>24.45929</v>
@@ -3225,37 +3309,37 @@
       <c r="N21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R21" s="6" t="s">
-        <v>46</v>
+      <c r="T21" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D22" s="30">
         <v>500.0</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" s="32">
         <v>44279.0</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H22" s="28" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J22" s="30">
         <v>24.45892</v>
@@ -3275,11 +3359,11 @@
       <c r="O22" s="35"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
-      <c r="R22" s="34" t="s">
-        <v>60</v>
-      </c>
+      <c r="R22" s="35"/>
       <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
+      <c r="T22" s="34" t="s">
+        <v>62</v>
+      </c>
       <c r="U22" s="35"/>
       <c r="V22" s="35"/>
       <c r="W22" s="35"/>
@@ -3292,34 +3376,36 @@
       <c r="AD22" s="35"/>
       <c r="AE22" s="35"/>
       <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
     </row>
     <row r="23">
       <c r="A23" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D23" s="7">
         <v>500.0</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="5">
         <v>44343.0</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J23" s="7">
         <v>24.45892</v>
@@ -3328,37 +3414,37 @@
         <v>-81.84409</v>
       </c>
       <c r="L23" s="17"/>
-      <c r="R23" s="6" t="s">
-        <v>60</v>
+      <c r="T23" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D24" s="30">
         <v>500.0</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24" s="36">
         <v>44679.0</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H24" s="28" t="s">
         <v>23</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J24" s="30">
         <v>24.45892</v>
@@ -3378,11 +3464,11 @@
       <c r="O24" s="35"/>
       <c r="P24" s="35"/>
       <c r="Q24" s="35"/>
-      <c r="R24" s="34" t="s">
-        <v>60</v>
-      </c>
+      <c r="R24" s="35"/>
       <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
+      <c r="T24" s="34" t="s">
+        <v>62</v>
+      </c>
       <c r="U24" s="35"/>
       <c r="V24" s="35"/>
       <c r="W24" s="35"/>
@@ -3395,34 +3481,36 @@
       <c r="AD24" s="35"/>
       <c r="AE24" s="35"/>
       <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
     </row>
     <row r="25">
       <c r="A25" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>59</v>
-      </c>
       <c r="C25" s="38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D25" s="39">
         <v>500.0</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F25" s="41">
         <v>44305.0</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H25" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J25" s="39">
         <v>24.45915</v>
@@ -3442,14 +3530,14 @@
       <c r="O25" s="45"/>
       <c r="P25" s="45"/>
       <c r="Q25" s="45"/>
-      <c r="R25" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="S25" s="44" t="s">
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
+      <c r="U25" s="44" t="s">
+        <v>64</v>
+      </c>
       <c r="V25" s="45"/>
       <c r="W25" s="45"/>
       <c r="X25" s="45"/>
@@ -3461,34 +3549,36 @@
       <c r="AD25" s="45"/>
       <c r="AE25" s="45"/>
       <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="45"/>
     </row>
     <row r="26">
       <c r="A26" s="37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D26" s="39">
         <v>500.0</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F26" s="41">
         <v>44305.0</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H26" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I26" s="43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J26" s="39">
         <v>24.45915</v>
@@ -3508,11 +3598,11 @@
       <c r="O26" s="45"/>
       <c r="P26" s="45"/>
       <c r="Q26" s="45"/>
-      <c r="R26" s="44" t="s">
-        <v>60</v>
-      </c>
+      <c r="R26" s="45"/>
       <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
+      <c r="T26" s="44" t="s">
+        <v>62</v>
+      </c>
       <c r="U26" s="45"/>
       <c r="V26" s="45"/>
       <c r="W26" s="45"/>
@@ -3525,34 +3615,36 @@
       <c r="AD26" s="45"/>
       <c r="AE26" s="45"/>
       <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
     </row>
     <row r="27">
       <c r="A27" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D27" s="39">
         <v>500.0</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F27" s="41">
         <v>44305.0</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H27" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I27" s="43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J27" s="39">
         <v>24.45915</v>
@@ -3572,11 +3664,11 @@
       <c r="O27" s="45"/>
       <c r="P27" s="45"/>
       <c r="Q27" s="45"/>
-      <c r="R27" s="44" t="s">
-        <v>60</v>
-      </c>
+      <c r="R27" s="45"/>
       <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
+      <c r="T27" s="44" t="s">
+        <v>62</v>
+      </c>
       <c r="U27" s="45"/>
       <c r="V27" s="45"/>
       <c r="W27" s="45"/>
@@ -3589,34 +3681,36 @@
       <c r="AD27" s="45"/>
       <c r="AE27" s="45"/>
       <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="45"/>
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="C28" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D28" s="7">
         <v>500.0</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F28" s="5">
         <v>44343.0</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J28" s="7">
         <v>24.45915</v>
@@ -3627,37 +3721,37 @@
       <c r="L28" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R28" s="6" t="s">
-        <v>60</v>
+      <c r="T28" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D29" s="7">
         <v>500.0</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F29" s="5">
         <v>44343.0</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J29" s="7">
         <v>24.45915</v>
@@ -3668,37 +3762,37 @@
       <c r="L29" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R29" s="6" t="s">
-        <v>60</v>
+      <c r="T29" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D30" s="7">
         <v>500.0</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F30" s="5">
         <v>44343.0</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J30" s="7">
         <v>24.45915</v>
@@ -3709,37 +3803,37 @@
       <c r="L30" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R30" s="6" t="s">
-        <v>60</v>
+      <c r="T30" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="38" t="s">
-        <v>59</v>
-      </c>
       <c r="C31" s="38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D31" s="39">
         <v>500.0</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F31" s="47">
         <v>44679.0</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H31" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I31" s="43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J31" s="39">
         <v>24.45915</v>
@@ -3759,14 +3853,14 @@
       <c r="O31" s="45"/>
       <c r="P31" s="45"/>
       <c r="Q31" s="45"/>
-      <c r="R31" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="S31" s="44" t="s">
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
+      <c r="U31" s="44" t="s">
+        <v>64</v>
+      </c>
       <c r="V31" s="45"/>
       <c r="W31" s="45"/>
       <c r="X31" s="45"/>
@@ -3778,34 +3872,36 @@
       <c r="AD31" s="45"/>
       <c r="AE31" s="45"/>
       <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
     </row>
     <row r="32">
       <c r="A32" s="37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D32" s="39">
         <v>500.0</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F32" s="47">
         <v>44679.0</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H32" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I32" s="43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J32" s="39">
         <v>24.45915</v>
@@ -3825,11 +3921,11 @@
       <c r="O32" s="45"/>
       <c r="P32" s="45"/>
       <c r="Q32" s="45"/>
-      <c r="R32" s="44" t="s">
-        <v>60</v>
-      </c>
+      <c r="R32" s="45"/>
       <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
+      <c r="T32" s="44" t="s">
+        <v>62</v>
+      </c>
       <c r="U32" s="45"/>
       <c r="V32" s="45"/>
       <c r="W32" s="45"/>
@@ -3842,34 +3938,36 @@
       <c r="AD32" s="45"/>
       <c r="AE32" s="45"/>
       <c r="AF32" s="45"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="45"/>
     </row>
     <row r="33">
       <c r="A33" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D33" s="39">
         <v>500.0</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F33" s="47">
         <v>44679.0</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H33" s="42" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J33" s="39">
         <v>24.45915</v>
@@ -3889,11 +3987,11 @@
       <c r="O33" s="45"/>
       <c r="P33" s="45"/>
       <c r="Q33" s="45"/>
-      <c r="R33" s="44" t="s">
-        <v>60</v>
-      </c>
+      <c r="R33" s="45"/>
       <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
+      <c r="T33" s="44" t="s">
+        <v>62</v>
+      </c>
       <c r="U33" s="45"/>
       <c r="V33" s="45"/>
       <c r="W33" s="45"/>
@@ -3906,34 +4004,36 @@
       <c r="AD33" s="45"/>
       <c r="AE33" s="45"/>
       <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
     </row>
     <row r="34">
       <c r="A34" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D34" s="7">
         <v>500.0</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F34" s="5">
         <v>44308.0</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J34" s="7">
         <v>24.45959</v>
@@ -3950,40 +4050,40 @@
       <c r="N34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R34" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>67</v>
+      <c r="T34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D35" s="7">
         <v>500.0</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F35" s="5">
         <v>44308.0</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J35" s="7">
         <v>24.45959</v>
@@ -3998,40 +4098,40 @@
       <c r="N35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>69</v>
+      <c r="T35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D36" s="7">
         <v>500.0</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F36" s="5">
         <v>44308.0</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J36" s="7">
         <v>24.45959</v>
@@ -4048,37 +4148,37 @@
       <c r="N36" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R36" s="6" t="s">
-        <v>66</v>
+      <c r="T36" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D37" s="7">
         <v>500.0</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F37" s="5">
         <v>44343.0</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J37" s="7">
         <v>24.45959</v>
@@ -4089,37 +4189,37 @@
       <c r="L37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R37" s="6" t="s">
-        <v>66</v>
+      <c r="T37" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D38" s="7">
         <v>500.0</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F38" s="5">
         <v>44343.0</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H38" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J38" s="7">
         <v>24.45959</v>
@@ -4130,37 +4230,37 @@
       <c r="L38" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R38" s="6" t="s">
-        <v>66</v>
+      <c r="T38" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D39" s="7">
         <v>500.0</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F39" s="5">
         <v>44343.0</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J39" s="7">
         <v>24.45959</v>
@@ -4171,37 +4271,37 @@
       <c r="L39" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R39" s="6" t="s">
-        <v>66</v>
+      <c r="T39" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D40" s="7">
         <v>500.0</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F40" s="8">
         <v>44679.0</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J40" s="7">
         <v>24.45959</v>
@@ -4218,40 +4318,40 @@
       <c r="N40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R40" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="S40" s="6" t="s">
-        <v>67</v>
+      <c r="T40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D41" s="7">
         <v>500.0</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F41" s="8">
         <v>44679.0</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H41" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J41" s="7">
         <v>24.45959</v>
@@ -4266,37 +4366,37 @@
       <c r="N41" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R41" s="6" t="s">
-        <v>66</v>
+      <c r="T41" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D42" s="7">
         <v>500.0</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F42" s="8">
         <v>44679.0</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H42" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J42" s="7">
         <v>24.45959</v>
@@ -4313,37 +4413,37 @@
       <c r="N42" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R42" s="6" t="s">
-        <v>66</v>
+      <c r="T42" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D43" s="7">
         <v>500.0</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F43" s="5">
         <v>44412.0</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H43" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J43" s="7">
         <v>24.45857</v>
@@ -4357,37 +4457,37 @@
       <c r="N43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R43" s="6" t="s">
-        <v>66</v>
+      <c r="T43" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D44" s="7">
         <v>500.0</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F44" s="8">
         <v>44754.0</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H44" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J44" s="7">
         <v>24.45857</v>
@@ -4397,35 +4497,35 @@
       </c>
       <c r="L44" s="14"/>
       <c r="N44" s="6"/>
-      <c r="R44" s="6"/>
+      <c r="T44" s="6"/>
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D45" s="6">
         <v>100.0</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F45" s="49">
         <v>44455.0</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H45" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J45" s="50">
         <v>24.4596</v>
@@ -4439,35 +4539,35 @@
       <c r="N45" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R45" s="6" t="s">
-        <v>66</v>
+      <c r="T45" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="6">
         <v>100.0</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F46" s="49">
         <v>44475.0</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J46" s="50">
         <v>24.54675</v>
@@ -4476,35 +4576,35 @@
         <v>-81.40189</v>
       </c>
       <c r="L46" s="17"/>
-      <c r="R46" s="6" t="s">
-        <v>46</v>
+      <c r="T46" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="6">
         <v>500.0</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F47" s="49">
         <v>44439.0</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J47" s="50">
         <v>24.45928</v>
@@ -4516,39 +4616,39 @@
         <v>25</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R47" s="6" t="s">
-        <v>60</v>
+        <v>80</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D48" s="6">
         <v>100.0</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F48" s="49">
         <v>44474.0</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J48" s="50">
         <v>24.46009</v>
@@ -4565,31 +4665,31 @@
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D49" s="6">
         <v>500.0</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F49" s="49">
         <v>44560.0</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J49" s="6">
         <v>24.4596</v>
@@ -4600,37 +4700,37 @@
       <c r="L49" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="S49" s="6" t="s">
-        <v>81</v>
+      <c r="U49" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D50" s="6">
         <v>300.0</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F50" s="51">
         <v>44603.0</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J50" s="6">
         <v>24.45889</v>
@@ -4647,31 +4747,31 @@
     </row>
     <row r="51">
       <c r="A51" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D51" s="6">
         <v>500.0</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F51" s="51">
         <v>44631.0</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J51" s="6">
         <v>24.45957</v>
@@ -4683,31 +4783,31 @@
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D52" s="6">
         <v>500.0</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F52" s="51">
         <v>44637.0</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J52" s="6">
         <v>24.46002</v>
@@ -4719,31 +4819,31 @@
     </row>
     <row r="53">
       <c r="A53" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D53" s="6">
         <v>350.0</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F53" s="49">
         <v>44581.0</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J53" s="6">
         <v>24.45915</v>
@@ -4755,31 +4855,31 @@
     </row>
     <row r="54">
       <c r="A54" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D54" s="6">
         <v>400.0</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F54" s="49">
         <v>44581.0</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J54" s="6">
         <v>24.45959</v>
@@ -4791,31 +4891,31 @@
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D55" s="53">
         <v>2000.0</v>
       </c>
       <c r="E55" s="54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F55" s="55">
         <v>44722.0</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H55" s="52" t="s">
         <v>23</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J55" s="56">
         <v>24.45928</v>
@@ -4829,8 +4929,8 @@
       <c r="M55" s="57"/>
       <c r="N55" s="57"/>
       <c r="O55" s="57"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="58"/>
+      <c r="P55" s="58"/>
+      <c r="Q55" s="57"/>
       <c r="R55" s="58"/>
       <c r="S55" s="58"/>
       <c r="T55" s="58"/>
@@ -4846,6 +4946,8 @@
       <c r="AD55" s="58"/>
       <c r="AE55" s="58"/>
       <c r="AF55" s="58"/>
+      <c r="AG55" s="58"/>
+      <c r="AH55" s="58"/>
     </row>
     <row r="56">
       <c r="A56" s="59"/>
@@ -4863,7 +4965,7 @@
       <c r="M56" s="25"/>
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
     </row>
     <row r="57">
       <c r="A57" s="17"/>
@@ -12602,11 +12704,11 @@
       <c r="L1023" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AF$1023"/>
+  <autoFilter ref="$A$1:$AH$1023"/>
   <customSheetViews>
-    <customSheetView guid="{D7893EC2-F5D3-44A7-9B34-14D3B70846FB}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$AF$1023">
-        <sortState ref="A1:AF1023">
+    <customSheetView guid="{01613340-CA6A-46A3-9EE8-616436530E68}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$AH$1023">
+        <sortState ref="A1:AH1023">
           <sortCondition ref="F1:F1023"/>
           <sortCondition ref="A1:A1023"/>
           <sortCondition ref="E1:E1023"/>
@@ -12641,21 +12743,21 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="23">
         <v>44581.0</v>
@@ -12688,10 +12790,10 @@
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="23">
         <v>44581.0</v>
@@ -12724,10 +12826,10 @@
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="64">
         <v>44603.0</v>
@@ -12760,10 +12862,10 @@
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="64">
         <v>44631.0</v>
@@ -12796,10 +12898,10 @@
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="64">
         <v>44637.0</v>
@@ -12832,10 +12934,10 @@
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="23">
         <v>44278.0</v>
@@ -12868,10 +12970,10 @@
     </row>
     <row r="8">
       <c r="A8" s="26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="23">
         <v>44279.0</v>
@@ -12904,10 +13006,10 @@
     </row>
     <row r="9">
       <c r="A9" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="23">
         <v>44305.0</v>
@@ -12940,10 +13042,10 @@
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="23">
         <v>44308.0</v>
@@ -12976,10 +13078,10 @@
     </row>
     <row r="11">
       <c r="A11" s="26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" s="23">
         <v>44307.0</v>
@@ -13012,10 +13114,10 @@
     </row>
     <row r="12">
       <c r="A12" s="26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="23">
         <v>44343.0</v>
@@ -13048,10 +13150,10 @@
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="23">
         <v>44349.0</v>
@@ -13120,10 +13222,10 @@
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" s="23">
         <v>44362.0</v>
@@ -13228,10 +13330,10 @@
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="23">
         <v>44378.0</v>
@@ -13264,10 +13366,10 @@
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" s="23">
         <v>44404.0</v>
@@ -13300,10 +13402,10 @@
     </row>
     <row r="20">
       <c r="A20" s="67" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" s="23">
         <v>44412.0</v>
@@ -13336,10 +13438,10 @@
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="23">
         <v>44439.0</v>
@@ -13372,10 +13474,10 @@
     </row>
     <row r="22">
       <c r="A22" s="67" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="66">
         <v>44455.0</v>
@@ -13408,10 +13510,10 @@
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" s="23">
         <v>44474.0</v>
@@ -13444,10 +13546,10 @@
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" s="23">
         <v>44475.0</v>
@@ -13696,10 +13798,10 @@
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C31" s="23">
         <v>44560.0</v>
